--- a/Documentation/Naked Functions/Naked Functions - Attributes.xlsx
+++ b/Documentation/Naked Functions/Naked Functions - Attributes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NakedObjectsFramework\Documentation\Naked Functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{55F76219-CC94-45A5-B3B1-36CCCA45A99A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAD6A626-6E50-4683-BBDB-AE822794F6B5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1305" yWindow="-15870" windowWidth="25440" windowHeight="15390" xr2:uid="{F90638A0-5B97-415D-B8E6-E7D5161399E3}"/>
   </bookViews>
@@ -157,12 +157,6 @@
     <t>Specifies minumum accepted length for a string parameter. If used on the string parameter of an AutoComplete complementary function, specifies the minimum number of characters that must be typed before the auto-complete function will be engaged.</t>
   </si>
   <si>
-    <t>Specifies that a string property should be rendered as a multi-line text field, of specified number of lines, but scrollable.</t>
-  </si>
-  <si>
-    <t>Specifies that a string parameter should be rendered as a multi-line text field, of specified number of lines, but scrollable.</t>
-  </si>
-  <si>
     <t>Specifies that the user may invoke the corresponding action repeatedly - building up a table of entries.</t>
   </si>
   <si>
@@ -252,6 +246,12 @@
   </si>
   <si>
     <t>Used to test that the user's view of an object is up to date before allowing a function that has side-effects (returns an Icontext) may be invoked. This is effectively a 'long term' form of concurrency checking. However Entity Framework's  'short term' form of concurrency checking (during a transaction) will also be needed. The two mechanisms may use the same field or different fields for their checks.</t>
+  </si>
+  <si>
+    <t>Specifies that a string property should be rendered as a multi-line text field, with specified number of lines,  scrollable.  The Width property is unused by the current client, but is exposed on the Resftul API for custom use.</t>
+  </si>
+  <si>
+    <t>Specifies that a string parameter should be rendered as a multi-line text field, with specified number of lines,  scrollable.  The Width property is unused by the current client, but is exposed on the Resftul API for custom use.</t>
   </si>
 </sst>
 </file>
@@ -376,7 +376,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -396,9 +396,27 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -407,23 +425,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -741,8 +744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19D1B0AD-A80F-47A6-B71C-21BAE0653708}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -776,8 +779,8 @@
         <v>28</v>
       </c>
       <c r="C2" s="10"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="12"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="11"/>
     </row>
     <row r="3" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
@@ -795,8 +798,8 @@
         <v>2</v>
       </c>
       <c r="B4" s="10"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="12"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="11"/>
       <c r="E4" s="4" t="s">
         <v>30</v>
       </c>
@@ -805,19 +808,19 @@
       <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="21"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="14"/>
     </row>
     <row r="6" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="10"/>
-      <c r="C6" s="12"/>
+      <c r="C6" s="11"/>
       <c r="D6" s="4" t="s">
         <v>32</v>
       </c>
@@ -828,7 +831,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="10"/>
-      <c r="C7" s="12"/>
+      <c r="C7" s="11"/>
       <c r="D7" s="4" t="s">
         <v>29</v>
       </c>
@@ -843,7 +846,7 @@
         <v>34</v>
       </c>
       <c r="D8" s="10"/>
-      <c r="E8" s="12"/>
+      <c r="E8" s="11"/>
     </row>
     <row r="9" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
@@ -863,10 +866,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="10"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="12"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="11"/>
       <c r="E10" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="87" x14ac:dyDescent="0.35">
@@ -887,25 +890,25 @@
         <v>10</v>
       </c>
       <c r="B12" s="10"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="12"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="11"/>
       <c r="E12" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>42</v>
-      </c>
       <c r="E13" s="4" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
@@ -913,7 +916,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
@@ -924,10 +927,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="10"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="12"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="11"/>
       <c r="E15" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
@@ -935,9 +938,9 @@
         <v>14</v>
       </c>
       <c r="B16" s="10"/>
-      <c r="C16" s="12"/>
+      <c r="C16" s="11"/>
       <c r="D16" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E16" s="3"/>
     </row>
@@ -946,32 +949,32 @@
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C17" s="10"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="12"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="11"/>
     </row>
     <row r="18" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="15"/>
+      <c r="B18" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="21"/>
     </row>
     <row r="19" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="10"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="12"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="11"/>
       <c r="E19" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
@@ -979,13 +982,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>51</v>
-      </c>
       <c r="D20" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E20" s="7"/>
     </row>
@@ -994,10 +997,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="3"/>
-      <c r="C21" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21" s="15"/>
+      <c r="C21" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="21"/>
       <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
@@ -1005,10 +1008,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="10"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="12"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="11"/>
       <c r="E22" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="159.5" x14ac:dyDescent="0.35">
@@ -1017,35 +1020,24 @@
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D23" s="10"/>
-      <c r="E23" s="12"/>
+      <c r="E23" s="11"/>
     </row>
     <row r="24" spans="1:5" ht="87" x14ac:dyDescent="0.35">
       <c r="A24" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C24" s="10"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="12"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:C16"/>
     <mergeCell ref="C24:E24"/>
     <mergeCell ref="C17:E17"/>
     <mergeCell ref="B18:E18"/>
@@ -1053,6 +1045,17 @@
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Documentation/Naked Functions/Naked Functions - Attributes.xlsx
+++ b/Documentation/Naked Functions/Naked Functions - Attributes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NakedObjectsFramework\Documentation\Naked Functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAD6A626-6E50-4683-BBDB-AE822794F6B5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C0C969-DDE4-42CB-8A93-019D46ED72D6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1305" yWindow="-15870" windowWidth="25440" windowHeight="15390" xr2:uid="{F90638A0-5B97-415D-B8E6-E7D5161399E3}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>[Bounded]</t>
   </si>
@@ -143,9 +143,6 @@
   </si>
   <si>
     <t>Formast the view of a value using standard Microsoft formats.</t>
-  </si>
-  <si>
-    <t>?? TBC</t>
   </si>
   <si>
     <t>Specifies the relative order in which properties (including collections) should be displayed. The 'Grouping' property is currently unused on the client, but is indicated on the RESTful API for possible custom use.</t>
@@ -395,9 +392,31 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -405,28 +424,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -744,8 +741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19D1B0AD-A80F-47A6-B71C-21BAE0653708}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -778,9 +775,9 @@
       <c r="B2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="13"/>
     </row>
     <row r="3" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
@@ -797,9 +794,9 @@
       <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="13"/>
       <c r="E4" s="4" t="s">
         <v>30</v>
       </c>
@@ -808,19 +805,19 @@
       <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="14"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="22"/>
     </row>
     <row r="6" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="13"/>
       <c r="D6" s="4" t="s">
         <v>32</v>
       </c>
@@ -830,8 +827,8 @@
       <c r="A7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="13"/>
       <c r="D7" s="4" t="s">
         <v>29</v>
       </c>
@@ -845,8 +842,8 @@
       <c r="C8" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="13"/>
     </row>
     <row r="9" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
@@ -856,20 +853,18 @@
       <c r="C9" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="4" t="s">
-        <v>36</v>
-      </c>
+      <c r="D9" s="11"/>
+      <c r="E9" s="13"/>
     </row>
     <row r="10" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="13"/>
       <c r="E10" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="87" x14ac:dyDescent="0.35">
@@ -878,10 +873,10 @@
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>38</v>
       </c>
       <c r="E11" s="7"/>
     </row>
@@ -889,11 +884,11 @@
       <c r="A12" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="13"/>
       <c r="E12" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
@@ -902,45 +897,45 @@
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="18"/>
+      <c r="B14" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="19"/>
     </row>
     <row r="15" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A15" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="13"/>
       <c r="E15" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="13"/>
       <c r="D16" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E16" s="3"/>
     </row>
@@ -949,32 +944,32 @@
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="11"/>
+        <v>43</v>
+      </c>
+      <c r="C17" s="11"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="13"/>
     </row>
     <row r="18" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="21"/>
+      <c r="B18" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="16"/>
     </row>
     <row r="19" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="13"/>
       <c r="E19" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
@@ -982,13 +977,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C20" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>50</v>
       </c>
       <c r="E20" s="7"/>
     </row>
@@ -997,21 +992,21 @@
         <v>19</v>
       </c>
       <c r="B21" s="3"/>
-      <c r="C21" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="D21" s="21"/>
+      <c r="C21" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="16"/>
       <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A22" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="13"/>
       <c r="E22" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="159.5" x14ac:dyDescent="0.35">
@@ -1020,24 +1015,36 @@
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D23" s="10"/>
-      <c r="E23" s="11"/>
+        <v>53</v>
+      </c>
+      <c r="D23" s="11"/>
+      <c r="E23" s="13"/>
     </row>
     <row r="24" spans="1:5" ht="87" x14ac:dyDescent="0.35">
       <c r="A24" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="11"/>
+        <v>52</v>
+      </c>
+      <c r="C24" s="11"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="19">
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:C16"/>
     <mergeCell ref="C24:E24"/>
     <mergeCell ref="C17:E17"/>
     <mergeCell ref="B18:E18"/>
@@ -1045,17 +1052,6 @@
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Documentation/Naked Functions/Naked Functions - Attributes.xlsx
+++ b/Documentation/Naked Functions/Naked Functions - Attributes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24315"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NakedObjectsFramework\Documentation\Naked Functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C0C969-DDE4-42CB-8A93-019D46ED72D6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB00A8BD-D201-4019-8CC0-8E565B4DD3B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1305" yWindow="-15870" windowWidth="25440" windowHeight="15390" xr2:uid="{F90638A0-5B97-415D-B8E6-E7D5161399E3}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>[Bounded]</t>
   </si>
@@ -249,6 +249,12 @@
   </si>
   <si>
     <t>Specifies that a string parameter should be rendered as a multi-line text field, with specified number of lines,  scrollable.  The Width property is unused by the current client, but is exposed on the Resftul API for custom use.</t>
+  </si>
+  <si>
+    <t>[Disabled]</t>
+  </si>
+  <si>
+    <t>Renders parameter, but does not permit the user to change that value (useful as an advisory).</t>
   </si>
 </sst>
 </file>
@@ -373,7 +379,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -396,9 +402,27 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -407,23 +431,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -739,10 +754,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19D1B0AD-A80F-47A6-B71C-21BAE0653708}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -776,8 +791,8 @@
         <v>28</v>
       </c>
       <c r="C2" s="11"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="13"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="12"/>
     </row>
     <row r="3" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
@@ -795,8 +810,8 @@
         <v>2</v>
       </c>
       <c r="B4" s="11"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="13"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="12"/>
       <c r="E4" s="4" t="s">
         <v>30</v>
       </c>
@@ -805,253 +820,264 @@
       <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="22"/>
-    </row>
-    <row r="6" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="15"/>
+    </row>
+    <row r="6" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="23"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="4" t="s">
+      <c r="B7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="4" t="s">
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="13"/>
+      <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D9" s="11"/>
-      <c r="E9" s="13"/>
+      <c r="E9" s="12"/>
     </row>
     <row r="10" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="12"/>
+    </row>
+    <row r="11" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A11" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="4" t="s">
+      <c r="B11" s="11"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="87" x14ac:dyDescent="0.35">
-      <c r="A11" s="8" t="s">
+    <row r="12" spans="1:5" ht="87" x14ac:dyDescent="0.35">
+      <c r="A12" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="4" t="s">
+      <c r="B12" s="6"/>
+      <c r="C12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D12" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="7"/>
-    </row>
-    <row r="12" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="4" t="s">
-        <v>38</v>
-      </c>
+      <c r="E12" s="7"/>
     </row>
     <row r="13" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="11"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="4" t="s">
+      <c r="B14" s="3"/>
+      <c r="C14" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D14" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E14" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="8" t="s">
+    <row r="15" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B15" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="19"/>
-    </row>
-    <row r="15" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="8" t="s">
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="19"/>
+    </row>
+    <row r="16" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="4" t="s">
+      <c r="B16" s="11"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="8" t="s">
+    <row r="17" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="4" t="s">
+      <c r="B17" s="11"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="3"/>
-    </row>
-    <row r="17" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="9" t="s">
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B18" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="13"/>
-    </row>
-    <row r="18" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="9" t="s">
+      <c r="C18" s="11"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="12"/>
+    </row>
+    <row r="19" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B19" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="16"/>
-    </row>
-    <row r="19" spans="1:5" ht="58" x14ac:dyDescent="0.35">
-      <c r="A19" s="9" t="s">
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="22"/>
+    </row>
+    <row r="20" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="A20" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="4" t="s">
+      <c r="B20" s="11"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="9" t="s">
+    <row r="21" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B21" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C21" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D21" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E20" s="7"/>
-    </row>
-    <row r="21" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="9" t="s">
+      <c r="E21" s="7"/>
+    </row>
+    <row r="22" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="14" t="s">
+      <c r="B22" s="3"/>
+      <c r="C22" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="16"/>
-      <c r="E21" s="3"/>
-    </row>
-    <row r="22" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="9" t="s">
+      <c r="D22" s="22"/>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="4" t="s">
+      <c r="B23" s="11"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="9" t="s">
+    <row r="24" spans="1:5" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="4" t="s">
+      <c r="B24" s="3"/>
+      <c r="C24" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D23" s="11"/>
-      <c r="E23" s="13"/>
-    </row>
-    <row r="24" spans="1:5" ht="87" x14ac:dyDescent="0.35">
-      <c r="A24" s="9" t="s">
+      <c r="D24" s="11"/>
+      <c r="E24" s="12"/>
+    </row>
+    <row r="25" spans="1:5" ht="87" x14ac:dyDescent="0.35">
+      <c r="A25" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B25" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C24" s="11"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="13"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D10:E10"/>
     <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D8:E8"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B8:C8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
